--- a/tests/fixtures/orderforms/1508.19.mip.xlsx
+++ b/tests/fixtures/orderforms/1508.19.mip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrikgrenfeldt/Documents/src/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F44A35B8-F4B3-1546-A964-11C63BC63B02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26350D09-DF74-E347-978E-FAB31B89B353}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="4980" windowWidth="29000" windowHeight="14700" tabRatio="262" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5440" yWindow="4980" windowWidth="36500" windowHeight="18620" tabRatio="262" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="information" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="512">
   <si>
     <t>&lt;TABLE HEADER&gt;</t>
   </si>
@@ -1635,9 +1635,6 @@
     <t>UDF/Sample Buffer</t>
   </si>
   <si>
-    <t>10 mM Tris-HCl</t>
-  </si>
-  <si>
     <t>Nuclease-free water</t>
   </si>
   <si>
@@ -2065,7 +2062,7 @@
     <t>Nuclease free water</t>
   </si>
   <si>
-    <t>Tris-HCl (pH 8-8.5)</t>
+    <t>Tris-HCl</t>
   </si>
 </sst>
 </file>
@@ -4543,7 +4540,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -4587,7 +4584,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -4629,7 +4626,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="2"/>
@@ -4647,7 +4644,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>24</v>
@@ -4684,7 +4681,7 @@
     </row>
     <row r="16" spans="1:5" ht="14">
       <c r="A16" s="15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -4817,18 +4814,18 @@
     </row>
     <row r="45" spans="1:5" ht="18" customHeight="1">
       <c r="A45" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="13" customHeight="1"/>
     <row r="47" spans="1:5" ht="42" customHeight="1">
       <c r="A47" s="34" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="42" customHeight="1">
       <c r="A48" s="34" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="18" customHeight="1">
@@ -4839,7 +4836,7 @@
     <row r="50" spans="1:1" ht="13" customHeight="1"/>
     <row r="51" spans="1:1" ht="42" customHeight="1">
       <c r="A51" s="34" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="19" customHeight="1">
@@ -4902,7 +4899,7 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="36" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -4967,8 +4964,8 @@
   </sheetPr>
   <dimension ref="A1:AH428"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C52"/>
+    <sheetView showGridLines="0" topLeftCell="I3" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -5315,7 +5312,7 @@
       <c r="S9" s="224"/>
       <c r="T9" s="100"/>
       <c r="U9" s="228" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="V9" s="228"/>
       <c r="W9" s="100"/>
@@ -5433,10 +5430,10 @@
       </c>
       <c r="T11" s="114"/>
       <c r="U11" s="195" t="s">
+        <v>424</v>
+      </c>
+      <c r="V11" s="115" t="s">
         <v>425</v>
-      </c>
-      <c r="V11" s="115" t="s">
-        <v>426</v>
       </c>
       <c r="W11" s="114"/>
       <c r="X11" s="194" t="s">
@@ -5561,10 +5558,10 @@
       </c>
       <c r="T13" s="138"/>
       <c r="U13" s="140" t="s">
+        <v>426</v>
+      </c>
+      <c r="V13" s="140" t="s">
         <v>427</v>
-      </c>
-      <c r="V13" s="140" t="s">
-        <v>428</v>
       </c>
       <c r="W13" s="138"/>
       <c r="X13" s="140" t="s">
@@ -5635,7 +5632,7 @@
     </row>
     <row r="15" spans="1:34" s="126" customFormat="1" ht="25" customHeight="1">
       <c r="A15" s="198" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B15" s="199" t="s">
         <v>37</v>
@@ -5647,7 +5644,7 @@
         <v>283</v>
       </c>
       <c r="E15" s="198" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F15" s="200" t="s">
         <v>15</v>
@@ -5669,7 +5666,7 @@
       </c>
       <c r="L15" s="149"/>
       <c r="M15" s="58" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="N15" s="57" t="s">
         <v>27</v>
@@ -5682,25 +5679,25 @@
         <v>298</v>
       </c>
       <c r="R15" s="198" t="s">
+        <v>441</v>
+      </c>
+      <c r="S15" s="206" t="s">
         <v>442</v>
-      </c>
-      <c r="S15" s="206" t="s">
-        <v>443</v>
       </c>
       <c r="T15" s="150"/>
       <c r="U15" s="61" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="V15" s="61">
         <v>1</v>
       </c>
       <c r="W15" s="150"/>
       <c r="X15" s="31" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Y15" s="180"/>
       <c r="Z15" s="211" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AA15" s="212">
         <v>5</v>
@@ -5717,15 +5714,15 @@
       </c>
       <c r="AF15" s="152"/>
       <c r="AG15" s="58" t="s">
+        <v>437</v>
+      </c>
+      <c r="AH15" s="58" t="s">
         <v>438</v>
-      </c>
-      <c r="AH15" s="58" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:34" s="126" customFormat="1" ht="25" customHeight="1">
       <c r="A16" s="198" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B16" s="199" t="s">
         <v>37</v>
@@ -5737,7 +5734,7 @@
         <v>288</v>
       </c>
       <c r="E16" s="198" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F16" s="200" t="s">
         <v>16</v>
@@ -5771,14 +5768,14 @@
       <c r="S16" s="208"/>
       <c r="T16" s="150"/>
       <c r="U16" s="61" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="V16" s="61">
         <v>1</v>
       </c>
       <c r="W16" s="150"/>
       <c r="X16" s="210" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Y16" s="180"/>
       <c r="Z16" s="213"/>
@@ -5797,7 +5794,7 @@
     </row>
     <row r="17" spans="1:34" s="126" customFormat="1" ht="25" customHeight="1">
       <c r="A17" s="198" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B17" s="199" t="s">
         <v>37</v>
@@ -5809,7 +5806,7 @@
         <v>284</v>
       </c>
       <c r="E17" s="198" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F17" s="200" t="s">
         <v>15</v>
@@ -5843,14 +5840,14 @@
       <c r="S17" s="208"/>
       <c r="T17" s="150"/>
       <c r="U17" s="61" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="V17" s="61">
         <v>1</v>
       </c>
       <c r="W17" s="150"/>
       <c r="X17" s="31" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Y17" s="180"/>
       <c r="Z17" s="213"/>
@@ -5867,7 +5864,7 @@
     </row>
     <row r="18" spans="1:34" s="126" customFormat="1" ht="25" customHeight="1">
       <c r="A18" s="198" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B18" s="199" t="s">
         <v>37</v>
@@ -5879,7 +5876,7 @@
         <v>285</v>
       </c>
       <c r="E18" s="198" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F18" s="200" t="s">
         <v>77</v>
@@ -5904,7 +5901,7 @@
       <c r="N18" s="57"/>
       <c r="O18" s="149"/>
       <c r="P18" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q18" s="202" t="s">
         <v>77</v>
@@ -5916,7 +5913,7 @@
       <c r="V18" s="61"/>
       <c r="W18" s="150"/>
       <c r="X18" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y18" s="180"/>
       <c r="Z18" s="213"/>
@@ -5933,7 +5930,7 @@
     </row>
     <row r="19" spans="1:34" s="126" customFormat="1" ht="25" customHeight="1">
       <c r="A19" s="198" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B19" s="199" t="s">
         <v>37</v>
@@ -5945,7 +5942,7 @@
         <v>286</v>
       </c>
       <c r="E19" s="198" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F19" s="200" t="s">
         <v>77</v>
@@ -5982,7 +5979,7 @@
       <c r="V19" s="61"/>
       <c r="W19" s="150"/>
       <c r="X19" s="31" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Y19" s="180"/>
       <c r="Z19" s="213"/>
@@ -5999,7 +5996,7 @@
     </row>
     <row r="20" spans="1:34" s="126" customFormat="1" ht="25" customHeight="1">
       <c r="A20" s="198" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B20" s="199" t="s">
         <v>37</v>
@@ -6011,7 +6008,7 @@
         <v>287</v>
       </c>
       <c r="E20" s="198" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F20" s="200" t="s">
         <v>77</v>
@@ -6048,7 +6045,7 @@
       <c r="V20" s="61"/>
       <c r="W20" s="150"/>
       <c r="X20" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y20" s="180"/>
       <c r="Z20" s="213"/>
@@ -6065,7 +6062,7 @@
     </row>
     <row r="21" spans="1:34" s="126" customFormat="1" ht="25" customHeight="1">
       <c r="A21" s="198" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B21" s="199" t="s">
         <v>37</v>
@@ -6077,7 +6074,7 @@
         <v>376</v>
       </c>
       <c r="E21" s="198" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F21" s="200" t="s">
         <v>77</v>
@@ -6114,7 +6111,7 @@
       <c r="V21" s="61"/>
       <c r="W21" s="150"/>
       <c r="X21" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y21" s="180"/>
       <c r="Z21" s="213"/>
@@ -6131,7 +6128,7 @@
     </row>
     <row r="22" spans="1:34" s="126" customFormat="1" ht="25" customHeight="1">
       <c r="A22" s="198" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B22" s="199" t="s">
         <v>37</v>
@@ -6140,10 +6137,10 @@
         <v>296</v>
       </c>
       <c r="D22" s="201" t="s">
+        <v>448</v>
+      </c>
+      <c r="E22" s="198" t="s">
         <v>449</v>
-      </c>
-      <c r="E22" s="198" t="s">
-        <v>450</v>
       </c>
       <c r="F22" s="200" t="s">
         <v>77</v>
@@ -6180,7 +6177,7 @@
       <c r="V22" s="61"/>
       <c r="W22" s="150"/>
       <c r="X22" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y22" s="180"/>
       <c r="Z22" s="213"/>
@@ -6197,7 +6194,7 @@
     </row>
     <row r="23" spans="1:34" ht="25" customHeight="1">
       <c r="A23" s="198" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B23" s="199" t="s">
         <v>37</v>
@@ -6206,10 +6203,10 @@
         <v>296</v>
       </c>
       <c r="D23" s="201" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E23" s="198" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F23" s="200" t="s">
         <v>77</v>
@@ -6246,7 +6243,7 @@
       <c r="V23" s="61"/>
       <c r="W23" s="150"/>
       <c r="X23" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y23" s="180"/>
       <c r="Z23" s="213"/>
@@ -6263,7 +6260,7 @@
     </row>
     <row r="24" spans="1:34" ht="25" customHeight="1">
       <c r="A24" s="198" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B24" s="199" t="s">
         <v>37</v>
@@ -6272,10 +6269,10 @@
         <v>296</v>
       </c>
       <c r="D24" s="201" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E24" s="198" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F24" s="200" t="s">
         <v>77</v>
@@ -6312,7 +6309,7 @@
       <c r="V24" s="61"/>
       <c r="W24" s="150"/>
       <c r="X24" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y24" s="180"/>
       <c r="Z24" s="213"/>
@@ -6329,7 +6326,7 @@
     </row>
     <row r="25" spans="1:34" ht="25" customHeight="1">
       <c r="A25" s="198" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B25" s="199" t="s">
         <v>37</v>
@@ -6338,10 +6335,10 @@
         <v>296</v>
       </c>
       <c r="D25" s="201" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E25" s="198" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F25" s="200" t="s">
         <v>77</v>
@@ -6378,7 +6375,7 @@
       <c r="V25" s="61"/>
       <c r="W25" s="150"/>
       <c r="X25" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y25" s="180"/>
       <c r="Z25" s="213" t="s">
@@ -6397,7 +6394,7 @@
     </row>
     <row r="26" spans="1:34" ht="25" customHeight="1">
       <c r="A26" s="198" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B26" s="199" t="s">
         <v>37</v>
@@ -6406,10 +6403,10 @@
         <v>296</v>
       </c>
       <c r="D26" s="201" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E26" s="198" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F26" s="200" t="s">
         <v>77</v>
@@ -6446,11 +6443,11 @@
       <c r="V26" s="61"/>
       <c r="W26" s="150"/>
       <c r="X26" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y26" s="180"/>
       <c r="Z26" s="213" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AA26" s="212">
         <v>60</v>
@@ -6465,7 +6462,7 @@
     </row>
     <row r="27" spans="1:34" s="153" customFormat="1" ht="25" customHeight="1">
       <c r="A27" s="198" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B27" s="199" t="s">
         <v>37</v>
@@ -6474,10 +6471,10 @@
         <v>296</v>
       </c>
       <c r="D27" s="201" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E27" s="198" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F27" s="200" t="s">
         <v>77</v>
@@ -6514,11 +6511,11 @@
       <c r="V27" s="61"/>
       <c r="W27" s="150"/>
       <c r="X27" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y27" s="180"/>
       <c r="Z27" s="213" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AA27" s="212">
         <v>65</v>
@@ -6533,7 +6530,7 @@
     </row>
     <row r="28" spans="1:34" s="153" customFormat="1" ht="25" customHeight="1">
       <c r="A28" s="198" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B28" s="199" t="s">
         <v>37</v>
@@ -6542,10 +6539,10 @@
         <v>296</v>
       </c>
       <c r="D28" s="201" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E28" s="198" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F28" s="200" t="s">
         <v>77</v>
@@ -6582,11 +6579,11 @@
       <c r="V28" s="61"/>
       <c r="W28" s="150"/>
       <c r="X28" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y28" s="180"/>
       <c r="Z28" s="213" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AA28" s="212">
         <v>70</v>
@@ -6601,7 +6598,7 @@
     </row>
     <row r="29" spans="1:34" s="153" customFormat="1" ht="25" customHeight="1">
       <c r="A29" s="198" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B29" s="199" t="s">
         <v>37</v>
@@ -6610,10 +6607,10 @@
         <v>296</v>
       </c>
       <c r="D29" s="201" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E29" s="198" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F29" s="200" t="s">
         <v>77</v>
@@ -6650,11 +6647,11 @@
       <c r="V29" s="61"/>
       <c r="W29" s="150"/>
       <c r="X29" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y29" s="180"/>
       <c r="Z29" s="213" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AA29" s="212">
         <v>75</v>
@@ -6669,7 +6666,7 @@
     </row>
     <row r="30" spans="1:34" s="153" customFormat="1" ht="25" customHeight="1">
       <c r="A30" s="198" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B30" s="199" t="s">
         <v>37</v>
@@ -6678,10 +6675,10 @@
         <v>296</v>
       </c>
       <c r="D30" s="201" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E30" s="198" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F30" s="200" t="s">
         <v>77</v>
@@ -6718,11 +6715,11 @@
       <c r="V30" s="61"/>
       <c r="W30" s="150"/>
       <c r="X30" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y30" s="180"/>
       <c r="Z30" s="213" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AA30" s="212">
         <v>80</v>
@@ -6737,7 +6734,7 @@
     </row>
     <row r="31" spans="1:34" s="153" customFormat="1" ht="25" customHeight="1">
       <c r="A31" s="198" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B31" s="199" t="s">
         <v>37</v>
@@ -6746,10 +6743,10 @@
         <v>296</v>
       </c>
       <c r="D31" s="201" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E31" s="198" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F31" s="200" t="s">
         <v>77</v>
@@ -6786,7 +6783,7 @@
       <c r="V31" s="61"/>
       <c r="W31" s="150"/>
       <c r="X31" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y31" s="180"/>
       <c r="Z31" s="213"/>
@@ -6803,7 +6800,7 @@
     </row>
     <row r="32" spans="1:34" s="153" customFormat="1" ht="25" customHeight="1">
       <c r="A32" s="198" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B32" s="199" t="s">
         <v>37</v>
@@ -6812,10 +6809,10 @@
         <v>296</v>
       </c>
       <c r="D32" s="201" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E32" s="198" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F32" s="200" t="s">
         <v>77</v>
@@ -6852,7 +6849,7 @@
       <c r="V32" s="61"/>
       <c r="W32" s="150"/>
       <c r="X32" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y32" s="180"/>
       <c r="Z32" s="213"/>
@@ -6869,7 +6866,7 @@
     </row>
     <row r="33" spans="1:34" s="153" customFormat="1" ht="25" customHeight="1">
       <c r="A33" s="198" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B33" s="199" t="s">
         <v>37</v>
@@ -6878,10 +6875,10 @@
         <v>296</v>
       </c>
       <c r="D33" s="201" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E33" s="198" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F33" s="200" t="s">
         <v>77</v>
@@ -6918,7 +6915,7 @@
       <c r="V33" s="61"/>
       <c r="W33" s="150"/>
       <c r="X33" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y33" s="180"/>
       <c r="Z33" s="213"/>
@@ -6935,7 +6932,7 @@
     </row>
     <row r="34" spans="1:34" s="153" customFormat="1" ht="25" customHeight="1">
       <c r="A34" s="198" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B34" s="199" t="s">
         <v>37</v>
@@ -6944,10 +6941,10 @@
         <v>296</v>
       </c>
       <c r="D34" s="201" t="s">
+        <v>473</v>
+      </c>
+      <c r="E34" s="198" t="s">
         <v>474</v>
-      </c>
-      <c r="E34" s="198" t="s">
-        <v>475</v>
       </c>
       <c r="F34" s="200" t="s">
         <v>77</v>
@@ -6984,7 +6981,7 @@
       <c r="V34" s="61"/>
       <c r="W34" s="150"/>
       <c r="X34" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y34" s="180"/>
       <c r="Z34" s="213"/>
@@ -7001,7 +6998,7 @@
     </row>
     <row r="35" spans="1:34" s="153" customFormat="1" ht="25" customHeight="1">
       <c r="A35" s="198" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B35" s="199" t="s">
         <v>37</v>
@@ -7010,10 +7007,10 @@
         <v>296</v>
       </c>
       <c r="D35" s="201" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E35" s="198" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F35" s="200" t="s">
         <v>77</v>
@@ -7050,7 +7047,7 @@
       <c r="V35" s="61"/>
       <c r="W35" s="150"/>
       <c r="X35" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y35" s="180"/>
       <c r="Z35" s="213"/>
@@ -7067,7 +7064,7 @@
     </row>
     <row r="36" spans="1:34" s="154" customFormat="1" ht="25" customHeight="1">
       <c r="A36" s="198" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B36" s="199" t="s">
         <v>37</v>
@@ -7076,10 +7073,10 @@
         <v>296</v>
       </c>
       <c r="D36" s="201" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E36" s="198" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F36" s="200" t="s">
         <v>77</v>
@@ -7116,7 +7113,7 @@
       <c r="V36" s="61"/>
       <c r="W36" s="150"/>
       <c r="X36" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y36" s="180"/>
       <c r="Z36" s="213"/>
@@ -7133,7 +7130,7 @@
     </row>
     <row r="37" spans="1:34" s="154" customFormat="1" ht="25" customHeight="1">
       <c r="A37" s="198" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B37" s="199" t="s">
         <v>37</v>
@@ -7142,10 +7139,10 @@
         <v>296</v>
       </c>
       <c r="D37" s="201" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E37" s="198" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F37" s="200" t="s">
         <v>77</v>
@@ -7182,7 +7179,7 @@
       <c r="V37" s="61"/>
       <c r="W37" s="150"/>
       <c r="X37" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y37" s="180"/>
       <c r="Z37" s="213"/>
@@ -7199,7 +7196,7 @@
     </row>
     <row r="38" spans="1:34" s="154" customFormat="1" ht="25" customHeight="1">
       <c r="A38" s="198" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B38" s="199" t="s">
         <v>37</v>
@@ -7208,10 +7205,10 @@
         <v>296</v>
       </c>
       <c r="D38" s="201" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E38" s="198" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F38" s="200" t="s">
         <v>77</v>
@@ -7248,7 +7245,7 @@
       <c r="V38" s="61"/>
       <c r="W38" s="150"/>
       <c r="X38" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y38" s="180"/>
       <c r="Z38" s="213"/>
@@ -7265,7 +7262,7 @@
     </row>
     <row r="39" spans="1:34" ht="25" customHeight="1">
       <c r="A39" s="198" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B39" s="199" t="s">
         <v>37</v>
@@ -7274,10 +7271,10 @@
         <v>296</v>
       </c>
       <c r="D39" s="201" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E39" s="198" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F39" s="200" t="s">
         <v>77</v>
@@ -7314,7 +7311,7 @@
       <c r="V39" s="61"/>
       <c r="W39" s="150"/>
       <c r="X39" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y39" s="180"/>
       <c r="Z39" s="213"/>
@@ -7331,7 +7328,7 @@
     </row>
     <row r="40" spans="1:34" ht="25" customHeight="1">
       <c r="A40" s="198" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B40" s="199" t="s">
         <v>37</v>
@@ -7340,10 +7337,10 @@
         <v>296</v>
       </c>
       <c r="D40" s="201" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E40" s="198" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F40" s="200" t="s">
         <v>77</v>
@@ -7380,7 +7377,7 @@
       <c r="V40" s="61"/>
       <c r="W40" s="150"/>
       <c r="X40" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y40" s="180"/>
       <c r="Z40" s="213"/>
@@ -7397,7 +7394,7 @@
     </row>
     <row r="41" spans="1:34" ht="25" customHeight="1">
       <c r="A41" s="198" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B41" s="199" t="s">
         <v>37</v>
@@ -7406,10 +7403,10 @@
         <v>296</v>
       </c>
       <c r="D41" s="201" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E41" s="198" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F41" s="200" t="s">
         <v>77</v>
@@ -7446,7 +7443,7 @@
       <c r="V41" s="61"/>
       <c r="W41" s="150"/>
       <c r="X41" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y41" s="180"/>
       <c r="Z41" s="213"/>
@@ -7463,7 +7460,7 @@
     </row>
     <row r="42" spans="1:34" ht="25" customHeight="1">
       <c r="A42" s="198" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B42" s="199" t="s">
         <v>37</v>
@@ -7472,10 +7469,10 @@
         <v>296</v>
       </c>
       <c r="D42" s="201" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E42" s="198" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F42" s="200" t="s">
         <v>77</v>
@@ -7512,7 +7509,7 @@
       <c r="V42" s="61"/>
       <c r="W42" s="150"/>
       <c r="X42" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y42" s="180"/>
       <c r="Z42" s="213"/>
@@ -7529,7 +7526,7 @@
     </row>
     <row r="43" spans="1:34" ht="25" customHeight="1">
       <c r="A43" s="198" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B43" s="199" t="s">
         <v>37</v>
@@ -7538,10 +7535,10 @@
         <v>296</v>
       </c>
       <c r="D43" s="201" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E43" s="198" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F43" s="200" t="s">
         <v>77</v>
@@ -7578,7 +7575,7 @@
       <c r="V43" s="61"/>
       <c r="W43" s="150"/>
       <c r="X43" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y43" s="180"/>
       <c r="Z43" s="213"/>
@@ -7595,7 +7592,7 @@
     </row>
     <row r="44" spans="1:34" ht="25" customHeight="1">
       <c r="A44" s="198" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B44" s="199" t="s">
         <v>37</v>
@@ -7604,10 +7601,10 @@
         <v>296</v>
       </c>
       <c r="D44" s="201" t="s">
+        <v>494</v>
+      </c>
+      <c r="E44" s="198" t="s">
         <v>495</v>
-      </c>
-      <c r="E44" s="198" t="s">
-        <v>496</v>
       </c>
       <c r="F44" s="200" t="s">
         <v>77</v>
@@ -7644,7 +7641,7 @@
       <c r="V44" s="61"/>
       <c r="W44" s="150"/>
       <c r="X44" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y44" s="180"/>
       <c r="Z44" s="213"/>
@@ -7661,7 +7658,7 @@
     </row>
     <row r="45" spans="1:34" ht="25" customHeight="1">
       <c r="A45" s="198" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B45" s="199" t="s">
         <v>37</v>
@@ -7673,7 +7670,7 @@
         <v>381</v>
       </c>
       <c r="E45" s="198" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F45" s="200" t="s">
         <v>77</v>
@@ -7710,7 +7707,7 @@
       <c r="V45" s="61"/>
       <c r="W45" s="150"/>
       <c r="X45" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y45" s="180"/>
       <c r="Z45" s="213"/>
@@ -7727,7 +7724,7 @@
     </row>
     <row r="46" spans="1:34" ht="25" customHeight="1">
       <c r="A46" s="198" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B46" s="199" t="s">
         <v>37</v>
@@ -7739,7 +7736,7 @@
         <v>382</v>
       </c>
       <c r="E46" s="198" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F46" s="200" t="s">
         <v>77</v>
@@ -7776,7 +7773,7 @@
       <c r="V46" s="61"/>
       <c r="W46" s="150"/>
       <c r="X46" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y46" s="180"/>
       <c r="Z46" s="213"/>
@@ -7793,7 +7790,7 @@
     </row>
     <row r="47" spans="1:34" ht="25" customHeight="1">
       <c r="A47" s="198" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B47" s="199" t="s">
         <v>37</v>
@@ -7805,7 +7802,7 @@
         <v>383</v>
       </c>
       <c r="E47" s="198" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F47" s="200" t="s">
         <v>77</v>
@@ -7842,7 +7839,7 @@
       <c r="V47" s="61"/>
       <c r="W47" s="150"/>
       <c r="X47" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y47" s="180"/>
       <c r="Z47" s="213"/>
@@ -7859,7 +7856,7 @@
     </row>
     <row r="48" spans="1:34" ht="25" customHeight="1">
       <c r="A48" s="198" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B48" s="199" t="s">
         <v>37</v>
@@ -7871,7 +7868,7 @@
         <v>384</v>
       </c>
       <c r="E48" s="198" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F48" s="200" t="s">
         <v>77</v>
@@ -7908,7 +7905,7 @@
       <c r="V48" s="61"/>
       <c r="W48" s="150"/>
       <c r="X48" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y48" s="180"/>
       <c r="Z48" s="213"/>
@@ -7925,7 +7922,7 @@
     </row>
     <row r="49" spans="1:34" ht="25" customHeight="1">
       <c r="A49" s="205" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B49" s="199" t="s">
         <v>37</v>
@@ -7937,7 +7934,7 @@
         <v>385</v>
       </c>
       <c r="E49" s="198" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F49" s="200" t="s">
         <v>77</v>
@@ -7974,7 +7971,7 @@
       <c r="V49" s="61"/>
       <c r="W49" s="150"/>
       <c r="X49" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y49" s="180"/>
       <c r="Z49" s="213"/>
@@ -7991,7 +7988,7 @@
     </row>
     <row r="50" spans="1:34" s="155" customFormat="1" ht="25" customHeight="1">
       <c r="A50" s="205" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B50" s="199" t="s">
         <v>37</v>
@@ -8003,7 +8000,7 @@
         <v>283</v>
       </c>
       <c r="E50" s="198" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F50" s="200" t="s">
         <v>77</v>
@@ -8040,7 +8037,7 @@
       <c r="V50" s="61"/>
       <c r="W50" s="150"/>
       <c r="X50" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y50" s="180"/>
       <c r="Z50" s="213"/>
@@ -8057,7 +8054,7 @@
     </row>
     <row r="51" spans="1:34" s="155" customFormat="1" ht="25" customHeight="1">
       <c r="A51" s="205" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B51" s="199" t="s">
         <v>37</v>
@@ -8069,7 +8066,7 @@
         <v>283</v>
       </c>
       <c r="E51" s="198" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F51" s="200" t="s">
         <v>77</v>
@@ -8106,7 +8103,7 @@
       <c r="V51" s="61"/>
       <c r="W51" s="150"/>
       <c r="X51" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y51" s="180"/>
       <c r="Z51" s="213"/>
@@ -8123,7 +8120,7 @@
     </row>
     <row r="52" spans="1:34" s="155" customFormat="1" ht="25" customHeight="1">
       <c r="A52" s="205" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B52" s="199" t="s">
         <v>37</v>
@@ -8135,7 +8132,7 @@
         <v>283</v>
       </c>
       <c r="E52" s="198" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F52" s="200" t="s">
         <v>77</v>
@@ -8172,7 +8169,7 @@
       <c r="V52" s="61"/>
       <c r="W52" s="150"/>
       <c r="X52" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y52" s="180"/>
       <c r="Z52" s="213"/>
@@ -20849,8 +20846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AL103"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -20932,7 +20929,7 @@
         <v>352</v>
       </c>
       <c r="P2" s="197" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Q2" s="42"/>
       <c r="R2" s="6"/>
@@ -20989,7 +20986,7 @@
         <v>298</v>
       </c>
       <c r="K3" s="173" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L3" s="167" t="s">
         <v>27</v>
@@ -21045,7 +21042,7 @@
         <v>299</v>
       </c>
       <c r="K4" s="173" t="s">
-        <v>392</v>
+        <v>511</v>
       </c>
       <c r="L4" s="168" t="s">
         <v>28</v>
@@ -21095,7 +21092,7 @@
         <v>77</v>
       </c>
       <c r="K5" s="196" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L5" s="168" t="s">
         <v>29</v>
@@ -21143,7 +21140,7 @@
         <v>30</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N6" s="175">
         <v>20</v>
@@ -21162,7 +21159,7 @@
     <row r="7" spans="1:38">
       <c r="A7" s="31"/>
       <c r="B7" s="37" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>285</v>
@@ -21353,7 +21350,7 @@
       <c r="A12" s="31"/>
       <c r="B12" s="32"/>
       <c r="C12" s="29" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="20" t="s">
@@ -21391,7 +21388,7 @@
       <c r="A13" s="31"/>
       <c r="B13" s="32"/>
       <c r="C13" s="29" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="20" t="s">
@@ -21429,7 +21426,7 @@
       <c r="A14" s="31"/>
       <c r="B14" s="32"/>
       <c r="C14" s="29" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="20" t="s">
@@ -21467,7 +21464,7 @@
       <c r="A15" s="31"/>
       <c r="B15" s="32"/>
       <c r="C15" s="29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="20" t="s">
@@ -21475,7 +21472,7 @@
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="41" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
@@ -21505,7 +21502,7 @@
       <c r="A16" s="31"/>
       <c r="B16" s="33"/>
       <c r="C16" s="29" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="20" t="s">
@@ -21543,7 +21540,7 @@
       <c r="A17" s="31"/>
       <c r="B17" s="33"/>
       <c r="C17" s="29" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="20" t="s">
@@ -21579,7 +21576,7 @@
       <c r="A18" s="31"/>
       <c r="B18" s="33"/>
       <c r="C18" s="29" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="20" t="s">
@@ -21615,7 +21612,7 @@
       <c r="A19" s="31"/>
       <c r="B19" s="33"/>
       <c r="C19" s="29" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="20" t="s">
@@ -21651,7 +21648,7 @@
       <c r="A20" s="31"/>
       <c r="B20" s="33"/>
       <c r="C20" s="29" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="20" t="s">
@@ -21687,7 +21684,7 @@
       <c r="A21" s="31"/>
       <c r="B21" s="33"/>
       <c r="C21" s="29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="20" t="s">
@@ -21723,7 +21720,7 @@
       <c r="A22" s="31"/>
       <c r="B22" s="33"/>
       <c r="C22" s="29" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="20" t="s">
@@ -21759,7 +21756,7 @@
       <c r="A23" s="31"/>
       <c r="B23" s="33"/>
       <c r="C23" s="29" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="20" t="s">
@@ -21792,7 +21789,7 @@
       <c r="A24" s="31"/>
       <c r="B24" s="33"/>
       <c r="C24" s="29" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="20" t="s">
@@ -21858,7 +21855,7 @@
       <c r="A26" s="31"/>
       <c r="B26" s="33"/>
       <c r="C26" s="29" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="20" t="s">
@@ -21891,7 +21888,7 @@
       <c r="A27" s="31"/>
       <c r="B27" s="33"/>
       <c r="C27" s="29" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="20" t="s">
@@ -21924,7 +21921,7 @@
       <c r="A28" s="31"/>
       <c r="B28" s="33"/>
       <c r="C28" s="29" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="20" t="s">
@@ -21957,7 +21954,7 @@
       <c r="A29" s="31"/>
       <c r="B29" s="33"/>
       <c r="C29" s="29" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="20" t="s">
@@ -21990,7 +21987,7 @@
       <c r="A30" s="31"/>
       <c r="B30" s="33"/>
       <c r="C30" s="29" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="20" t="s">
@@ -22023,7 +22020,7 @@
       <c r="A31" s="21"/>
       <c r="B31" s="33"/>
       <c r="C31" s="29" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="20" t="s">
@@ -22056,7 +22053,7 @@
       <c r="A32" s="21"/>
       <c r="B32" s="33"/>
       <c r="C32" s="29" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="20" t="s">
@@ -22089,7 +22086,7 @@
       <c r="A33" s="21"/>
       <c r="B33" s="33"/>
       <c r="C33" s="29" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="20" t="s">
@@ -22122,7 +22119,7 @@
       <c r="A34" s="21"/>
       <c r="B34" s="33"/>
       <c r="C34" s="29" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D34" s="21"/>
       <c r="E34" s="20" t="s">
@@ -22155,7 +22152,7 @@
       <c r="A35" s="21"/>
       <c r="B35" s="33"/>
       <c r="C35" s="29" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="20" t="s">
